--- a/PLCashbook/TestDocuments/PLC_Test Scenarios.xlsx
+++ b/PLCashbook/TestDocuments/PLC_Test Scenarios.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Regression" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression Suite" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Completed</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>Searched business name should be clicked and navigate to that business detals page</t>
+  </si>
+  <si>
+    <t>PLC06</t>
+  </si>
+  <si>
+    <t>Journal page</t>
+  </si>
+  <si>
+    <t>Verify Journal tab link functionality</t>
+  </si>
+  <si>
+    <t>Ensure that journal tab link is available in Journal page</t>
+  </si>
+  <si>
+    <t>1. Click on Journal tab link</t>
+  </si>
+  <si>
+    <t>Should open Journal page</t>
   </si>
 </sst>
 </file>
@@ -609,9 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -763,16 +779,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:7" ht="31.5">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="1">

--- a/PLCashbook/TestDocuments/PLC_Test Scenarios.xlsx
+++ b/PLCashbook/TestDocuments/PLC_Test Scenarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Completed</t>
   </si>
@@ -627,7 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -687,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120">
+    <row r="3" spans="1:7" ht="102.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,7 +808,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
